--- a/PCA.xlsx
+++ b/PCA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IGPRAD\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\PCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D6E6B2-B9BD-4B50-8899-840050B71F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3103FA-F266-4C40-82E4-8A99AB591548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{EDDEA5C5-9A3F-474A-B011-F972FA5D5FFB}"/>
   </bookViews>
@@ -34,9 +34,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>C</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Yi</t>
+  </si>
+  <si>
+    <t>Y^</t>
+  </si>
+  <si>
+    <t>Yi-Y^</t>
+  </si>
+  <si>
+    <t>(Yi-Y^)^2</t>
+  </si>
+  <si>
+    <t>Xi</t>
+  </si>
+  <si>
+    <t>Xi-X^</t>
+  </si>
+  <si>
+    <t>(Y-Y^)-(X-Xi)</t>
+  </si>
+  <si>
+    <t>Cov (X,X)</t>
+  </si>
+  <si>
+    <t>Cov (Y,Y)</t>
+  </si>
+  <si>
+    <t>Cov (X,Y)</t>
+  </si>
+  <si>
+    <t>Cov (Y,X)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C = </t>
   </si>
 </sst>
 </file>
@@ -66,7 +99,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -74,14 +107,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,498 +451,580 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F306FE22-F723-44CE-A5B5-7C7FD520763E}">
-  <dimension ref="B2:L16"/>
+  <dimension ref="B1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
         <f>(B2-C2)</f>
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
         <v>-4.5</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <f>D2*G2</f>
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <f>G2^2</f>
         <v>20.25</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
         <f>G2-D2</f>
         <v>-4.5</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <f>D2-G2</f>
         <v>4.5</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3">
+      <c r="B3" s="1">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D11" si="0">(B3-C3)</f>
         <v>-1</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>-3.5</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <f t="shared" ref="H3:H11" si="1">D3*G3</f>
         <v>3.5</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <f t="shared" ref="I3:I11" si="2">G3^2</f>
         <v>12.25</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
         <f t="shared" ref="K3:K11" si="3">G3-D3</f>
         <v>-2.5</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <f t="shared" ref="L3:L11" si="4">D3-G3</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4">
+      <c r="B4" s="1">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>-2.5</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <f t="shared" si="1"/>
         <v>-2.5</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <f t="shared" si="2"/>
         <v>6.25</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
         <f t="shared" si="3"/>
         <v>-3.5</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5">
+      <c r="B5" s="1">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>-1.5</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6">
+      <c r="B6" s="1">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>-0.5</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" si="3"/>
         <v>-1.5</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7">
+      <c r="B7" s="1">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1">
         <v>0.5</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>4</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <f t="shared" si="3"/>
         <v>-1.5</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>4</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>7</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>1.5</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>4</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <f t="shared" si="4"/>
         <v>-3.5</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
         <v>8</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>2.5</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <f t="shared" si="2"/>
         <v>6.25</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <f t="shared" si="4"/>
         <v>-2.5</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10">
+      <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>9</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>3.5</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <f t="shared" si="1"/>
         <v>-3.5</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <f t="shared" si="2"/>
         <v>12.25</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <f t="shared" si="4"/>
         <v>-4.5</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11">
+      <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <v>10</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>4.5</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <f t="shared" si="2"/>
         <v>20.25</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <f t="shared" si="4"/>
         <v>-3.5</v>
       </c>
     </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>60</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="C13" s="1"/>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
         <v>14</v>
       </c>
-      <c r="F13">
-        <f>SUM(F2:F11)</f>
+      <c r="F13" s="1">
+        <f t="shared" ref="F13:L13" si="5">SUM(F2:F11)</f>
         <v>55</v>
       </c>
-      <c r="G13">
-        <f>SUM(G2:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f>SUM(H2:H11)</f>
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <f>SUM(I2:I11)</f>
+      <c r="G13" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="5"/>
         <v>82.5</v>
       </c>
-      <c r="J13">
-        <f>SUM(J2:J11)</f>
+      <c r="J13" s="1">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="K13">
-        <f>SUM(K2:K11)</f>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f>SUM(L2:L11)</f>
+      <c r="K13" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>6</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="B14" s="4">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="5">
         <f>SQRT((E13)/(10-1))</f>
         <v>1.247219128924647</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>5.5</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <f ca="1">G13/G14</f>
         <v>0</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <f>AVERAGE(H2:H11)</f>
         <v>0.1</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <f>I13/(10-1)</f>
         <v>9.1666666666666661</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <f>J13/(10-1)</f>
         <v>1.5555555555555556</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <f>K13/(10-1)</f>
         <v>0</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <f>L13/(10-1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E15" s="2">
+    <row r="15" spans="2:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="7">
         <f>E14^2</f>
         <v>1.5555555555555554</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H16" t="s">
-        <v>0</v>
+    <row r="16" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1">
+        <f>I14</f>
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="J17" s="1">
+        <f>L14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="I18" s="1">
+        <f>K14</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <f>J14</f>
+        <v>1.5555555555555556</v>
       </c>
     </row>
   </sheetData>
